--- a/me/1.es6/4.Arrow-Function.xlsx
+++ b/me/1.es6/4.Arrow-Function.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DDE1C-7056-46D5-AD30-50A75FC653F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38543324-B7EB-44B5-A513-97358A33497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrow Functions 1" sheetId="1" r:id="rId1"/>
     <sheet name="Arrow Functions 2" sheetId="2" r:id="rId2"/>
+    <sheet name="This" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="184">
   <si>
     <t>構成</t>
   </si>
@@ -507,6 +508,206 @@
   </si>
   <si>
     <t>Chuyển sang chữ hoa</t>
+  </si>
+  <si>
+    <t>10-func-arrow-this.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="mjs/10-func-arrow-this.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\1.es6\mjs\10-func-arrow-this.js</t>
+  </si>
+  <si>
+    <t>let student = {</t>
+  </si>
+  <si>
+    <t>    name: "John",</t>
+  </si>
+  <si>
+    <t>    courses: ["Android", "PHP", "Java"],</t>
+  </si>
+  <si>
+    <t>    showInfo: function(){</t>
+  </si>
+  <si>
+    <t>        this.courses.forEach(function(course){</t>
+  </si>
+  <si>
+    <t>            console.log(`${this.name} study ${course}`);</t>
+  </si>
+  <si>
+    <t>        })</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>student.showInfo();</t>
+  </si>
+  <si>
+    <r>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.courses.forEach(function(course){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            console.log(`${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} study ${course}`);</t>
+    </r>
+  </si>
+  <si>
+    <t>this.name ko lấy được giá trị name ở bên ngoài</t>
+  </si>
+  <si>
+    <t>    name: "Peter",</t>
+  </si>
+  <si>
+    <t>        var _this = this;</t>
+  </si>
+  <si>
+    <t>            console.log(`${_this.name} study ${course}`);</t>
+  </si>
+  <si>
+    <t>trước khi gọi đến for earch thì ở phía ngoài gán this vào _this</t>
+  </si>
+  <si>
+    <t>cách viết này dùng để tham khảo</t>
+  </si>
+  <si>
+    <t>/* ==================== 03 bind ==================== */</t>
+  </si>
+  <si>
+    <t>    name: "Ronaldo",</t>
+  </si>
+  <si>
+    <t>/* ==================== 02 _this ==================== */</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/* ==================== 01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==================== */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.bind(this)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>    name: "josh",</t>
+  </si>
+  <si>
+    <r>
+      <t>        this.courses.forEach(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>course =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> console.log(`${this.name} study ${course}`))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng arrow function nên lấy được giá trị this.name </t>
+  </si>
+  <si>
+    <t>bình thường</t>
+  </si>
+  <si>
+    <t>Có thể tham khảo cách viết này</t>
   </si>
 </sst>
 </file>
@@ -1553,6 +1754,664 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E584F584-AA54-FBCE-7F0A-B9961CA67510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2724150" y="4362450"/>
+          <a:ext cx="647700" cy="26174700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>589959</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>114043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39209C10-F352-C6EF-BD7F-EF2333DC8C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="34823400"/>
+          <a:ext cx="4723809" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>418520</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>142623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B165CFD9-1235-CEA6-428C-86C03B310824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="31651575"/>
+          <a:ext cx="4638095" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EA0E3C-B07E-D02C-E1D2-AEF7B4A9B8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2800350" y="32423100"/>
+          <a:ext cx="6619875" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2348C593-FE86-C21F-6300-90A300F4C268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2495550" y="32689800"/>
+          <a:ext cx="6467475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D285484-8699-65EE-A29C-6C4F85E46C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2505075" y="35671125"/>
+          <a:ext cx="7143750" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2403039-CE1A-F9BD-56AC-2EF3DE94B3B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="35109150"/>
+          <a:ext cx="7620000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>437570</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>171199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72FB11A-EEB9-78D1-A47A-2E992C93D139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="37785675"/>
+          <a:ext cx="4638095" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B8A4D1-7ECA-670C-DAEB-6334A3850BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="38385750"/>
+          <a:ext cx="7800975" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CB6C5A-952C-690A-9033-4E98719D1447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="38604825"/>
+          <a:ext cx="7620000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>208998</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>66426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A350E247-E7E2-E5BA-FC94-84B0FE95C040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201150" y="40366950"/>
+          <a:ext cx="4419048" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F340BFEE-46A7-75AC-6D14-E1C5764A2C9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="40843200"/>
+          <a:ext cx="7448550" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB743274-9657-98BA-3490-59CB31AC0271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="40690800"/>
+          <a:ext cx="7905750" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4626,8 +5485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B033189-2533-4E87-8FCC-AC4654EC6EC1}">
   <dimension ref="A2:N185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="I177" sqref="I177"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7269,4 +8128,3049 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FA4F2A-6FF6-4C09-8516-BBEA2EC793D0}">
+  <dimension ref="A4:O221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="E20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="E22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="E23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="5"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="5"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="5"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="5"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="5"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B161" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="5"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="5"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="10"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="5"/>
+      <c r="I174" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="10"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B188" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="5"/>
+      <c r="I188" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="5"/>
+      <c r="J189" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="10"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B192" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="5"/>
+      <c r="I207" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="10"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="5"/>
+      <c r="J217" t="s">
+        <v>19</v>
+      </c>
+      <c r="K217" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="5"/>
+      <c r="K218" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>